--- a/worksheet1.xlsx
+++ b/worksheet1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -56,48 +56,6 @@
   </si>
   <si>
     <t xml:space="preserve">H Top 100 dividend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BN Index M</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NASDAQ 100 M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mid Cap 150 Mo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Healthcare D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D Equity </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Banking &amp; PSU Debt D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr US op</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S focused equity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S banking and financial</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S Gold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Large and mid cap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">multi asset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">small cap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mid cap</t>
   </si>
 </sst>
 </file>
@@ -370,10 +328,10 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:B22"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -411,7 +369,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="n">
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>6</v>
@@ -427,7 +385,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="n">
-        <v>43922</v>
+        <v>43924</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
@@ -442,7 +400,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="n">
-        <v>43922</v>
+        <v>43925</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>8</v>
@@ -458,7 +416,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="n">
-        <v>43922</v>
+        <v>43926</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>9</v>
@@ -475,7 +433,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="n">
-        <v>43922</v>
+        <v>43926</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -491,7 +449,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="n">
-        <v>43922</v>
+        <v>43983</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>11</v>
@@ -508,197 +466,99 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="n">
-        <v>43922</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="9" t="n">
-        <v>9101</v>
-      </c>
+      <c r="A9" s="4"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
       <c r="D9" s="8"/>
-      <c r="E9" s="8" t="n">
-        <v>500</v>
-      </c>
+      <c r="E9" s="8"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="n">
-        <v>43922</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="9" t="n">
-        <v>9101</v>
-      </c>
-      <c r="D10" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="8" t="n">
-        <v>501</v>
-      </c>
+      <c r="A10" s="4"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="n">
-        <v>43922</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="9" t="n">
-        <v>9101</v>
-      </c>
+      <c r="A11" s="4"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="9"/>
       <c r="D11" s="8"/>
-      <c r="E11" s="8" t="n">
-        <v>502</v>
-      </c>
+      <c r="E11" s="8"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="n">
-        <v>43922</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="11" t="n">
-        <v>70</v>
-      </c>
+      <c r="A12" s="4"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
       <c r="D12" s="10"/>
-      <c r="E12" s="10" t="n">
-        <v>500</v>
-      </c>
+      <c r="E12" s="10"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="n">
-        <v>43922</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="11" t="n">
-        <v>70</v>
-      </c>
+      <c r="A13" s="4"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
       <c r="D13" s="10"/>
-      <c r="E13" s="10" t="n">
-        <v>501</v>
-      </c>
+      <c r="E13" s="10"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="n">
-        <v>43922</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="11" t="n">
-        <v>70</v>
-      </c>
+      <c r="A14" s="4"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
       <c r="D14" s="10"/>
-      <c r="E14" s="10" t="n">
-        <v>502</v>
-      </c>
+      <c r="E14" s="10"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="n">
-        <v>43922</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="13" t="n">
-        <v>22</v>
-      </c>
+      <c r="A15" s="4"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="13"/>
       <c r="D15" s="14"/>
-      <c r="E15" s="12" t="n">
-        <v>501</v>
-      </c>
+      <c r="E15" s="12"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="n">
-        <v>43922</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="6" t="n">
-        <v>23</v>
-      </c>
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="5" t="n">
-        <v>500</v>
-      </c>
+      <c r="E16" s="5"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="n">
-        <v>43922</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="6" t="n">
-        <v>23</v>
-      </c>
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="n">
-        <v>43922</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="6" t="n">
-        <v>23</v>
-      </c>
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="6"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="n">
-        <v>43922</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>22</v>
-      </c>
+      <c r="A19" s="4"/>
+      <c r="B19" s="15"/>
       <c r="C19" s="16"/>
       <c r="D19" s="15"/>
-      <c r="E19" s="15" t="n">
-        <v>500</v>
-      </c>
+      <c r="E19" s="15"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="n">
-        <v>43922</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>23</v>
-      </c>
+      <c r="A20" s="4"/>
+      <c r="B20" s="15"/>
       <c r="C20" s="16"/>
       <c r="D20" s="15"/>
-      <c r="E20" s="15" t="n">
-        <v>500</v>
-      </c>
+      <c r="E20" s="15"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="n">
-        <v>43922</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>24</v>
-      </c>
+      <c r="A21" s="4"/>
+      <c r="B21" s="15"/>
       <c r="C21" s="16"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="n">
-        <v>43922</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>25</v>
-      </c>
+      <c r="A22" s="4"/>
+      <c r="B22" s="15"/>
       <c r="C22" s="16"/>
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
